--- a/guillemot/testgit.xlsx
+++ b/guillemot/testgit.xlsx
@@ -19,9 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ver1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -399,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -410,6 +414,11 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/guillemot/testgit.xlsx
+++ b/guillemot/testgit.xlsx
@@ -19,13 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ver1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ver2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -403,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -421,6 +425,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/guillemot/testgit.xlsx
+++ b/guillemot/testgit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
@@ -19,13 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ver1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ver2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unko</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -403,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -421,6 +425,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
